--- a/src/data/People.xlsx
+++ b/src/data/People.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5453CC6-EADB-4F87-BD2D-D644E55A7102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA723564-FDFD-4A5C-ABEE-CA8A9668284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>People ID</t>
   </si>
@@ -94,28 +94,13 @@
     <t>Jack Able</t>
   </si>
   <si>
-    <t>I-10</t>
-  </si>
-  <si>
-    <t>D-3;D-19;D-4</t>
-  </si>
-  <si>
-    <t>A-9</t>
-  </si>
-  <si>
-    <t>desktop</t>
+    <t>A-3</t>
   </si>
   <si>
     <t>George Itto</t>
   </si>
   <si>
     <t>I-1</t>
-  </si>
-  <si>
-    <t>I-2</t>
-  </si>
-  <si>
-    <t>I-3</t>
   </si>
   <si>
     <t>support</t>
@@ -477,7 +462,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -591,17 +576,8 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -615,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -628,15 +604,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
@@ -645,22 +613,13 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -668,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
